--- a/src/demo/zxxt_02_excel_f_xlsx.w3mi.data.xlsx
+++ b/src/demo/zxxt_02_excel_f_xlsx.w3mi.data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MoldaB\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moldab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="E_">Tree3!$E$6</definedName>
     <definedName name="F_">SimpleTree!$F$5</definedName>
-    <definedName name="RANGE_SUM1">SimpleTree!$E$5</definedName>
+    <definedName name="RANGE_SUM1" localSheetId="1">SimpleTree!$E$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -307,15 +307,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -374,6 +365,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -678,29 +678,29 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="8"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -749,7 +749,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,19 +774,19 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="20" t="s">
         <v>7</v>
       </c>
     </row>
@@ -794,19 +794,19 @@
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="16" t="s">
         <v>0</v>
       </c>
     </row>
@@ -814,17 +814,17 @@
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -832,14 +832,14 @@
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="10">
         <f>SUM(RANGE_SUM1)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="10">
         <f>SUM(F_)</f>
         <v>0</v>
       </c>
@@ -880,19 +880,19 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:6" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="20" t="s">
         <v>7</v>
       </c>
     </row>
@@ -900,19 +900,19 @@
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="16" t="s">
         <v>0</v>
       </c>
     </row>
@@ -920,15 +920,15 @@
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="28" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="25" t="s">
         <v>15</v>
       </c>
     </row>
@@ -936,16 +936,16 @@
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="24" t="e">
+      <c r="C7" s="23"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="21" t="e">
         <f>AVERAGE(E_)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="21" t="s">
         <v>21</v>
       </c>
     </row>
